--- a/outputs/results/df_cost_base.xlsx
+++ b/outputs/results/df_cost_base.xlsx
@@ -455,10 +455,10 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>1648.174106643302</v>
+        <v>1648.174644278447</v>
       </c>
       <c r="C2" t="n">
-        <v>1297989.845192636</v>
+        <v>1297994.498538498</v>
       </c>
     </row>
   </sheetData>
